--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/Personal/2409197/CNL Work/git/Cert_Import_Translation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0F7C70-5CDF-854F-B4CD-1CDD1A168DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6398C907-595B-934A-9A31-DD4C52D66828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="-23160" windowWidth="27240" windowHeight="15460" xr2:uid="{26A099E1-36E2-3442-9DC2-9153D3C994E5}"/>
+    <workbookView xWindow="1660" yWindow="-19700" windowWidth="27240" windowHeight="15460" xr2:uid="{26A099E1-36E2-3442-9DC2-9153D3C994E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Cert_number</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Path</t>
   </si>
   <si>
-    <t>Module</t>
-  </si>
-  <si>
     <t>Course_code</t>
   </si>
   <si>
@@ -107,6 +104,12 @@
   </si>
   <si>
     <t>Path_recert</t>
+  </si>
+  <si>
+    <t>Recert_days</t>
+  </si>
+  <si>
+    <t>Past_credit</t>
   </si>
 </sst>
 </file>
@@ -462,18 +465,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE51F6D-42D8-2D45-ADFC-A3A0ACDE1252}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,30 +493,33 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>42</v>
@@ -522,33 +528,33 @@
         <v>1095</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1">
+      <c r="N2" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>42</v>
@@ -557,33 +563,33 @@
         <v>1095</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="I3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="b">
+      <c r="J3" t="b">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>42</v>
@@ -592,33 +598,33 @@
         <v>1095</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="b">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
+      <c r="M4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="N4" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>42</v>
@@ -627,33 +633,33 @@
         <v>1095</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="b">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" t="s">
+      <c r="N5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>42</v>
@@ -662,33 +668,33 @@
         <v>1095</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="N6" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>42</v>
@@ -697,33 +703,33 @@
         <v>1095</v>
       </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="M7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>17</v>
+      <c r="N7" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>42</v>
@@ -732,33 +738,33 @@
         <v>1095</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="b">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="b">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
+      <c r="M8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="N8" s="1">
         <v>1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>42</v>
@@ -767,25 +773,25 @@
         <v>1095</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>90</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="s">
         <v>21</v>
       </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>17</v>
+      <c r="N9" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/Personal/2409197/CNL Work/git/Cert_Import_Translation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6398C907-595B-934A-9A31-DD4C52D66828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7226BA37-8559-DE46-B16D-D26A8349D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="-19700" windowWidth="27240" windowHeight="15460" xr2:uid="{26A099E1-36E2-3442-9DC2-9153D3C994E5}"/>
+    <workbookView xWindow="-3360" yWindow="-25360" windowWidth="27240" windowHeight="15460" xr2:uid="{26A099E1-36E2-3442-9DC2-9153D3C994E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Course_version</t>
   </si>
   <si>
-    <t>Aerial Work Platform Practical - Articulating Boom 135 ft</t>
-  </si>
-  <si>
     <t xml:space="preserve">This certification qualifies workers to operate the 135ft Articulating Boom. Please note that Working at Heights Worker certification is required to be completed before beginning the Aerial Work Platform certification. </t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t>Recertification</t>
   </si>
   <si>
-    <t>Aerial Work Platform Practical - Articulating Boom 60 ft or Less</t>
-  </si>
-  <si>
     <t xml:space="preserve">This certification qualifies workers to operate the 60ft Articulating Boom. Please note that Working at Heights Worker certification is required to be completed before beginning the Aerial Work Platform certification. </t>
   </si>
   <si>
@@ -110,6 +104,12 @@
   </si>
   <si>
     <t>Past_credit</t>
+  </si>
+  <si>
+    <t>zzz Aerial Work Platform Practical - Articulating Boom 60 ft or Less</t>
+  </si>
+  <si>
+    <t>zzz Aerial Work Platform Practical - Articulating Boom 135 ft</t>
   </si>
 </sst>
 </file>
@@ -468,11 +468,13 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -493,16 +495,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
         <v>6</v>
@@ -519,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>42</v>
@@ -528,22 +530,25 @@
         <v>1095</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>90</v>
       </c>
+      <c r="G2">
+        <v>365</v>
+      </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
         <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
       </c>
       <c r="N2" s="1">
         <v>1.6</v>
@@ -554,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>42</v>
@@ -563,25 +568,28 @@
         <v>1095</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>90</v>
       </c>
+      <c r="G3">
+        <v>365</v>
+      </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -589,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>42</v>
@@ -598,22 +606,25 @@
         <v>1095</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>90</v>
       </c>
+      <c r="G4">
+        <v>365</v>
+      </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
       </c>
       <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
         <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
       </c>
       <c r="N4" s="1">
         <v>1.6</v>
@@ -624,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>42</v>
@@ -633,25 +644,28 @@
         <v>1095</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>90</v>
       </c>
+      <c r="G5">
+        <v>365</v>
+      </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
       </c>
       <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -659,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>42</v>
@@ -668,22 +682,22 @@
         <v>1095</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6">
         <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
         <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
       </c>
       <c r="N6" s="1">
         <v>1.6</v>
@@ -694,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>42</v>
@@ -703,25 +717,25 @@
         <v>1095</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -729,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>42</v>
@@ -738,22 +752,22 @@
         <v>1095</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8">
         <v>90</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
       </c>
       <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
         <v>12</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
       </c>
       <c r="N8" s="1">
         <v>1.6</v>
@@ -764,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>42</v>
@@ -773,25 +787,25 @@
         <v>1095</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9">
         <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/Personal/2409197/CNL Work/git/Cert_Import_Translation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7226BA37-8559-DE46-B16D-D26A8349D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F255F0-3C02-FA46-A3ED-A72C169D9306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3360" yWindow="-25360" windowWidth="27240" windowHeight="15460" xr2:uid="{26A099E1-36E2-3442-9DC2-9153D3C994E5}"/>
   </bookViews>
@@ -468,7 +468,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,7 +676,7 @@
         <v>23</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D6">
         <v>1095</v>
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>1095</v>
@@ -746,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>1095</v>
@@ -781,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>1095</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Storage/Personal/2409197/CNL Work/git/Cert_Import_Translation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F255F0-3C02-FA46-A3ED-A72C169D9306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C5161F-2C57-1B4A-9747-8A22EA5AAD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3360" yWindow="-25360" windowWidth="27240" windowHeight="15460" xr2:uid="{26A099E1-36E2-3442-9DC2-9153D3C994E5}"/>
+    <workbookView xWindow="-2920" yWindow="-26240" windowWidth="28980" windowHeight="15460" xr2:uid="{26A099E1-36E2-3442-9DC2-9153D3C994E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="41">
   <si>
     <t>Cert_number</t>
   </si>
@@ -110,13 +110,61 @@
   </si>
   <si>
     <t>zzz Aerial Work Platform Practical - Articulating Boom 135 ft</t>
+  </si>
+  <si>
+    <t>OSH-9071-Online</t>
+  </si>
+  <si>
+    <t>OSH-9076-Online</t>
+  </si>
+  <si>
+    <t>OSH-3017</t>
+  </si>
+  <si>
+    <t>OSH-3020</t>
+  </si>
+  <si>
+    <t>OSH-2020-A</t>
+  </si>
+  <si>
+    <t>OSH-1004-VIRTUAL</t>
+  </si>
+  <si>
+    <t>OSH-1005-Online</t>
+  </si>
+  <si>
+    <t>OSH-3005</t>
+  </si>
+  <si>
+    <t>TDG-1007-H</t>
+  </si>
+  <si>
+    <t>TDG-9002</t>
+  </si>
+  <si>
+    <t>TDG-1004-WMAB</t>
+  </si>
+  <si>
+    <t>zzz Test Big Cert from Template</t>
+  </si>
+  <si>
+    <t>This cert is big and has a different recert path</t>
+  </si>
+  <si>
+    <t>OSH-1002-Online</t>
+  </si>
+  <si>
+    <t>OSH-3002-C</t>
+  </si>
+  <si>
+    <t>zzz Test Big Cert from Template 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,13 +172,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,10 +205,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -465,16 +529,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE51F6D-42D8-2D45-ADFC-A3A0ACDE1252}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -808,7 +872,918 @@
         <v>15</v>
       </c>
     </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10">
+        <v>720</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10">
+        <v>180</v>
+      </c>
+      <c r="G10">
+        <v>720</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>720</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>180</v>
+      </c>
+      <c r="G11">
+        <v>720</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>720</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>180</v>
+      </c>
+      <c r="G12">
+        <v>720</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>720</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>180</v>
+      </c>
+      <c r="G13">
+        <v>720</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>720</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14">
+        <v>180</v>
+      </c>
+      <c r="G14">
+        <v>720</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>90</v>
+      </c>
+      <c r="D15">
+        <v>720</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15">
+        <v>180</v>
+      </c>
+      <c r="G15">
+        <v>720</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
+      </c>
+      <c r="D16">
+        <v>720</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16">
+        <v>180</v>
+      </c>
+      <c r="G16">
+        <v>720</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>90</v>
+      </c>
+      <c r="D17">
+        <v>720</v>
+      </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17">
+        <v>180</v>
+      </c>
+      <c r="G17">
+        <v>720</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <v>720</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18">
+        <v>180</v>
+      </c>
+      <c r="G18">
+        <v>720</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>720</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19">
+        <v>180</v>
+      </c>
+      <c r="G19">
+        <v>720</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="D20">
+        <v>720</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20">
+        <v>180</v>
+      </c>
+      <c r="G20">
+        <v>720</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>720</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21">
+        <v>180</v>
+      </c>
+      <c r="G21">
+        <v>720</v>
+      </c>
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>720</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>180</v>
+      </c>
+      <c r="G22">
+        <v>720</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>720</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23">
+        <v>180</v>
+      </c>
+      <c r="G23">
+        <v>720</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>720</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24">
+        <v>180</v>
+      </c>
+      <c r="G24">
+        <v>720</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <v>720</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>180</v>
+      </c>
+      <c r="G25">
+        <v>720</v>
+      </c>
+      <c r="I25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <v>720</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26">
+        <v>180</v>
+      </c>
+      <c r="G26">
+        <v>720</v>
+      </c>
+      <c r="I26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>720</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27">
+        <v>180</v>
+      </c>
+      <c r="G27">
+        <v>720</v>
+      </c>
+      <c r="I27" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>90</v>
+      </c>
+      <c r="D28">
+        <v>720</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28">
+        <v>180</v>
+      </c>
+      <c r="G28">
+        <v>720</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>90</v>
+      </c>
+      <c r="D29">
+        <v>720</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <v>180</v>
+      </c>
+      <c r="G29">
+        <v>720</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>90</v>
+      </c>
+      <c r="D30">
+        <v>720</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <v>180</v>
+      </c>
+      <c r="G30">
+        <v>720</v>
+      </c>
+      <c r="I30" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>90</v>
+      </c>
+      <c r="D31">
+        <v>720</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31">
+        <v>180</v>
+      </c>
+      <c r="G31">
+        <v>720</v>
+      </c>
+      <c r="I31" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>90</v>
+      </c>
+      <c r="D32">
+        <v>720</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32">
+        <v>180</v>
+      </c>
+      <c r="G32">
+        <v>720</v>
+      </c>
+      <c r="I32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>90</v>
+      </c>
+      <c r="D33">
+        <v>720</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33">
+        <v>180</v>
+      </c>
+      <c r="G33">
+        <v>720</v>
+      </c>
+      <c r="I33" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>35</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>90</v>
+      </c>
+      <c r="D34">
+        <v>720</v>
+      </c>
+      <c r="E34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34">
+        <v>180</v>
+      </c>
+      <c r="G34">
+        <v>720</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>90</v>
+      </c>
+      <c r="D35">
+        <v>720</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35">
+        <v>180</v>
+      </c>
+      <c r="G35">
+        <v>720</v>
+      </c>
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>